--- a/Document_Rapport.xlsx
+++ b/Document_Rapport.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\campagnac\source\repos\Zoo_Raph\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8376D8-5529-4E58-B928-ECE094726B21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Problème" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +24,52 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+  <si>
+    <t>Problèmes</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Incompréhention</t>
+  </si>
+  <si>
+    <t>Modifier la methode     InitializeComponent() en lui passant des paramètre efface le contenu du form</t>
+  </si>
+  <si>
+    <t>résolu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En passant par la combo box je n'arrive pas à charger le form "informations"  avec la photo de l'animal </t>
+  </si>
+  <si>
+    <t>il faudrait mettre les photos dans la bdd</t>
+  </si>
+  <si>
+    <t>MOQ</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Fonctionnement des pictures chargez par défaut</t>
+  </si>
+  <si>
+    <t>Je ne sais pas comment générer des outils sur le form  partir du code (ex: ajouter une photo et un bouton quand j'ajoute un animal)</t>
+  </si>
+  <si>
+    <t>no se</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,13 +99,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +156,39 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2247AF80-8889-4003-9229-F17FF5607879}" name="Tableau1" displayName="Tableau1" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:B1048576" xr:uid="{9C88E85D-FF0A-4F2A-9212-7DF17F16289C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{015F5730-46DF-465D-9BFA-B3EB32CE0124}" name="Problèmes" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B0CD5791-3CFE-4356-BF22-C860170BBF3E}" name="Etat" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E04DD74-DB83-4D17-AA32-EFB8EABFC659}" name="Tableau2" displayName="Tableau2" ref="D1:E1048576" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="D1:E1048576" xr:uid="{A8195C69-6395-49E2-9F5D-3B4D1E623242}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C4DC4639-54D5-4678-AA3A-9042E1CE4660}" name="Bug" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{3F4BFEFC-3000-4E94-A89A-EBE6251E01B4}" name="Etat" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3CA8D266-F24D-4BD1-B7FB-7F390AA6E0F2}" name="Tableau3" displayName="Tableau3" ref="G1:H1048576" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="G1:H1048576" xr:uid="{A27F7259-237E-46AD-B03D-B0A360D2E50A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6B0D6FD8-E40A-4DFF-AE70-14BFCC1B9F76}" name="Incompréhention" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{8A05F2D2-BA83-438C-A6EC-7A2703D234D0}" name="Etat" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +453,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="48.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="48.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>